--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217199.1502341136</v>
+        <v>214234.7686065008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9144617.861409318</v>
+        <v>8948454.604323696</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441951.88648732</v>
+        <v>20249692.27821772</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3912668.939553642</v>
+        <v>3981527.064742321</v>
       </c>
     </row>
     <row r="11">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D21" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>121.9329941289853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,55 +2259,55 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>119.5504549011778</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
       <c r="Y22" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="23">
@@ -2321,64 +2323,64 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="V23" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="W23" t="n">
         <v>119.5504549011779</v>
-      </c>
-      <c r="E23" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="F23" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>135.7293992974318</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C24" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="S25" t="n">
         <v>135.7293992974318</v>
@@ -2530,7 +2532,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="C26" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.09378870120884</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>119.5504549011779</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V30" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>21.94182076836095</v>
       </c>
       <c r="V31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y33" t="n">
-        <v>135.7293992974318</v>
+        <v>60.36402868517418</v>
       </c>
     </row>
     <row r="34">
@@ -3196,52 +3198,52 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>119.5504549011778</v>
       </c>
-      <c r="G34" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="H34" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="I34" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>60.36402868517423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>135.7293992974318</v>
+        <v>121.9329941289852</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.7293992974318</v>
+        <v>81.39848696832996</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D37" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W38" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>60.36402868517416</v>
       </c>
       <c r="U39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C42" t="n">
-        <v>51.85199244433831</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>135.7293992974318</v>
+        <v>60.36402868517416</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="U43" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V43" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>68.65221300565774</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.39848696833005</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>452.2793106855804</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C20" t="n">
-        <v>315.1789073548413</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D20" t="n">
-        <v>315.1789073548413</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E20" t="n">
-        <v>315.1789073548413</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F20" t="n">
-        <v>315.1789073548413</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G20" t="n">
-        <v>178.0785040241021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H20" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I20" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J20" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="K20" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="L20" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="M20" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="N20" t="n">
+        <v>408.5454918852695</v>
+      </c>
+      <c r="O20" t="n">
+        <v>408.5454918852695</v>
+      </c>
+      <c r="P20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="R20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="S20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="T20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="U20" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="V20" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="W20" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="X20" t="n">
+        <v>147.9587552745337</v>
+      </c>
+      <c r="Y20" t="n">
         <v>10.85835194379454</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="M20" t="n">
-        <v>279.6025625527094</v>
-      </c>
-      <c r="N20" t="n">
-        <v>279.6025625527094</v>
-      </c>
-      <c r="O20" t="n">
-        <v>413.9746678571669</v>
-      </c>
-      <c r="P20" t="n">
-        <v>448.4853435031901</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="R20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="S20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="T20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="U20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="V20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="W20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="X20" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>452.2793106855804</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>419.7529566553985</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C21" t="n">
-        <v>419.7529566553985</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D21" t="n">
-        <v>282.6525533246594</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F21" t="n">
         <v>10.85835194379454</v>
@@ -5832,49 +5834,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K21" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L21" t="n">
-        <v>274.1733865808121</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M21" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N21" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O21" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P21" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q21" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U21" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V21" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W21" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X21" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y21" t="n">
-        <v>419.7529566553985</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.7167905282487</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C22" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D22" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E22" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G22" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H22" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I22" t="n">
         <v>10.85835194379454</v>
@@ -5911,7 +5913,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L22" t="n">
         <v>145.0696190886975</v>
@@ -5950,10 +5952,10 @@
         <v>542.917597189727</v>
       </c>
       <c r="X22" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y22" t="n">
-        <v>405.8171938589878</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C23" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D23" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E23" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F23" t="n">
         <v>10.85835194379454</v>
@@ -5987,22 +5989,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J23" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K23" t="n">
-        <v>145.230457248252</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L23" t="n">
-        <v>145.230457248252</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="M23" t="n">
-        <v>145.230457248252</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="N23" t="n">
-        <v>179.7411328942751</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="O23" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P23" t="n">
         <v>448.4853435031901</v>
@@ -6020,19 +6022,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U23" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V23" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W23" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X23" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y23" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C24" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D24" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E24" t="n">
         <v>10.85835194379454</v>
@@ -6072,16 +6074,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L24" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M24" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N24" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="O24" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="O24" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="P24" t="n">
         <v>542.9175971897271</v>
@@ -6096,22 +6098,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T24" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U24" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V24" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W24" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X24" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y24" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="25">
@@ -6157,37 +6159,37 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N25" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O25" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P25" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q25" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R25" t="n">
-        <v>405.8171938589878</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S25" t="n">
-        <v>268.7167905282487</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="T25" t="n">
-        <v>131.6163871975095</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="U25" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V25" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W25" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y25" t="n">
         <v>10.85835194379454</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C26" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D26" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E26" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F26" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G26" t="n">
         <v>10.85835194379454</v>
@@ -6224,52 +6226,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J26" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K26" t="n">
-        <v>145.230457248252</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L26" t="n">
-        <v>274.1733865808121</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="M26" t="n">
-        <v>408.5454918852696</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N26" t="n">
-        <v>408.5454918852696</v>
+        <v>351.601106825515</v>
       </c>
       <c r="O26" t="n">
-        <v>542.9175971897271</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="P26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V26" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W26" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X26" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y26" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="C27" t="n">
         <v>147.9587552745337</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10.85835194379454</v>
       </c>
       <c r="D27" t="n">
         <v>10.85835194379454</v>
@@ -6306,49 +6308,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K27" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L27" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="M27" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N27" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O27" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P27" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S27" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T27" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U27" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V27" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W27" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X27" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y27" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C28" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D28" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E28" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F28" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="G28" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H28" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="I28" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J28" t="n">
         <v>10.85835194379454</v>
@@ -6394,40 +6396,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N28" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T28" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U28" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V28" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W28" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X28" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y28" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D29" t="n">
         <v>10.85835194379454</v>
@@ -6467,46 +6469,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L29" t="n">
-        <v>10.85835194379454</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="M29" t="n">
-        <v>145.230457248252</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N29" t="n">
-        <v>279.6025625527094</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="O29" t="n">
-        <v>413.9746678571669</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P29" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q29" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R29" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S29" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T29" t="n">
-        <v>285.0591586052728</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U29" t="n">
-        <v>285.0591586052728</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V29" t="n">
-        <v>285.0591586052728</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W29" t="n">
         <v>285.0591586052728</v>
       </c>
       <c r="X29" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C30" t="n">
         <v>10.85835194379454</v>
@@ -6540,52 +6542,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J30" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K30" t="n">
-        <v>139.8012812763547</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L30" t="n">
-        <v>274.1733865808121</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M30" t="n">
-        <v>408.5454918852696</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N30" t="n">
-        <v>542.9175971897271</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="O30" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T30" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U30" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V30" t="n">
-        <v>285.0591586052728</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W30" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X30" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y30" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.7167905282487</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C31" t="n">
-        <v>268.7167905282487</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D31" t="n">
-        <v>147.9587552745337</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E31" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F31" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G31" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H31" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I31" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J31" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L31" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M31" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N31" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O31" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P31" t="n">
         <v>542.917597189727</v>
       </c>
       <c r="Q31" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R31" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S31" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T31" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U31" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="V31" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="W31" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="X31" t="n">
-        <v>268.7167905282487</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y31" t="n">
-        <v>268.7167905282487</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147.9587552745337</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="C32" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="D32" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="E32" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="F32" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="G32" t="n">
         <v>10.85835194379454</v>
@@ -6698,52 +6700,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J32" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K32" t="n">
-        <v>179.7411328942751</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L32" t="n">
-        <v>179.7411328942751</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M32" t="n">
-        <v>179.7411328942751</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N32" t="n">
-        <v>179.7411328942751</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O32" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P32" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V32" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W32" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F33" t="n">
         <v>10.85835194379454</v>
@@ -6780,49 +6782,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K33" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="M33" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="M33" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="N33" t="n">
-        <v>542.9175971897271</v>
-      </c>
       <c r="O33" t="n">
-        <v>542.9175971897271</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P33" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R33" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S33" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T33" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="U33" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V33" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="W33" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="X33" t="n">
-        <v>405.8171938589879</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="Y33" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C34" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D34" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E34" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F34" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G34" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="H34" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="I34" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="J34" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="K34" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L34" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M34" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N34" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O34" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P34" t="n">
         <v>542.917597189727</v>
@@ -6886,22 +6888,22 @@
         <v>542.917597189727</v>
       </c>
       <c r="T34" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U34" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V34" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W34" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X34" t="n">
-        <v>542.917597189727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C35" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D35" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E35" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F35" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G35" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H35" t="n">
         <v>10.85835194379454</v>
@@ -6938,49 +6940,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2290015210577</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2290015210577</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="N35" t="n">
-        <v>217.2290015210577</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="O35" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P35" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R35" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S35" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="T35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U35" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V35" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W35" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X35" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y35" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>208.9325216231946</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="C36" t="n">
-        <v>208.9325216231946</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="D36" t="n">
-        <v>208.9325216231946</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="E36" t="n">
-        <v>71.83211829245539</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F36" t="n">
-        <v>71.83211829245539</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G36" t="n">
         <v>10.85835194379454</v>
@@ -7014,52 +7016,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J36" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K36" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L36" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M36" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N36" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O36" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R36" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S36" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T36" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U36" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V36" t="n">
-        <v>346.0329249539337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W36" t="n">
-        <v>208.9325216231946</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="X36" t="n">
-        <v>208.9325216231946</v>
+        <v>282.6525533246593</v>
       </c>
       <c r="Y36" t="n">
-        <v>208.9325216231946</v>
+        <v>282.6525533246593</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.6163871975095</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C37" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D37" t="n">
         <v>10.85835194379454</v>
@@ -7096,7 +7098,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L37" t="n">
         <v>145.0696190886975</v>
@@ -7114,31 +7116,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q37" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R37" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S37" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T37" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U37" t="n">
-        <v>405.8171938589878</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V37" t="n">
-        <v>268.7167905282487</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W37" t="n">
-        <v>268.7167905282487</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="X37" t="n">
-        <v>268.7167905282487</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="Y37" t="n">
-        <v>268.7167905282487</v>
+        <v>230.1794491819377</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H38" t="n">
         <v>10.85835194379454</v>
@@ -7175,49 +7177,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K38" t="n">
-        <v>217.2290015210577</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L38" t="n">
-        <v>351.6011068255151</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="M38" t="n">
-        <v>485.9732121299726</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N38" t="n">
-        <v>542.9175971897271</v>
+        <v>351.601106825515</v>
       </c>
       <c r="O38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U38" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V38" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W38" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X38" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C39" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D39" t="n">
         <v>10.85835194379454</v>
@@ -7254,49 +7256,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K39" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L39" t="n">
-        <v>71.11249847690068</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="M39" t="n">
-        <v>205.4846037813581</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="N39" t="n">
-        <v>339.8567090858156</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O39" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P39" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R39" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S39" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T39" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U39" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V39" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W39" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X39" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y39" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C40" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D40" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E40" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F40" t="n">
         <v>10.85835194379454</v>
@@ -7333,7 +7335,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K40" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L40" t="n">
         <v>145.0696190886975</v>
@@ -7348,34 +7350,34 @@
         <v>479.9491134615892</v>
       </c>
       <c r="P40" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q40" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R40" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S40" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T40" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U40" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V40" t="n">
-        <v>268.7167905282488</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W40" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0591586052728</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0591586052728</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="D41" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="E41" t="n">
-        <v>147.9587552745337</v>
+        <v>178.078504024102</v>
       </c>
       <c r="F41" t="n">
-        <v>147.9587552745337</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="G41" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="H41" t="n">
         <v>10.85835194379454</v>
@@ -7409,52 +7411,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J41" t="n">
-        <v>45.36902758981768</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K41" t="n">
-        <v>45.36902758981768</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L41" t="n">
-        <v>45.36902758981768</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M41" t="n">
-        <v>179.7411328942751</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N41" t="n">
-        <v>314.1132381987326</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="O41" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P41" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V41" t="n">
-        <v>422.159561936012</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W41" t="n">
-        <v>285.0591586052728</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X41" t="n">
-        <v>285.0591586052728</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.0591586052728</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H42" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I42" t="n">
         <v>10.85835194379454</v>
@@ -7491,49 +7493,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K42" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="N42" t="n">
         <v>145.230457248252</v>
       </c>
-      <c r="L42" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="M42" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>279.6025625527094</v>
       </c>
-      <c r="O42" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="P42" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="Q42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R42" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S42" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T42" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="U42" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V42" t="n">
-        <v>268.7167905282488</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="W42" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X42" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="43">
@@ -7582,28 +7584,28 @@
         <v>381.4854669658995</v>
       </c>
       <c r="O43" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S43" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T43" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V43" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W43" t="n">
         <v>10.85835194379454</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>80.20402164647913</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>367.2798525126769</v>
       </c>
     </row>
   </sheetData>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L20" t="n">
-        <v>327.2896114605464</v>
+        <v>249.0797930315535</v>
       </c>
       <c r="M20" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O20" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
-        <v>222.7360773804728</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9482,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
-        <v>115.4839025616399</v>
+        <v>184.8665114499773</v>
       </c>
       <c r="N21" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>314.5524032714785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>289.4230774940994</v>
       </c>
       <c r="M23" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
-        <v>221.2573825015464</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P23" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9720,19 +9722,19 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>248.3048328685796</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M24" t="n">
         <v>251.2133018590717</v>
       </c>
       <c r="N24" t="n">
-        <v>236.9605242319105</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L26" t="n">
-        <v>321.8055953273168</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O26" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>245.3963899195954</v>
       </c>
       <c r="Q26" t="n">
         <v>180.6233730229902</v>
@@ -9954,25 +9956,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>247.7255684640984</v>
+        <v>242.2415523308689</v>
       </c>
       <c r="L27" t="n">
-        <v>242.82081673535</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M27" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P27" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10036,7 +10038,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>211.2171120040208</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
         <v>232.0625591822793</v>
@@ -10115,19 +10117,19 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M29" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O29" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P29" t="n">
-        <v>222.7360773804728</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10188,25 +10190,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>242.2415523308688</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N30" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q30" t="n">
         <v>113.7351914448925</v>
@@ -10270,7 +10272,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>138.7668962480483</v>
+        <v>138.7668962480482</v>
       </c>
       <c r="L31" t="n">
         <v>211.2171120040207</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K32" t="n">
-        <v>276.6858693050315</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L32" t="n">
         <v>191.5602121631146</v>
@@ -10358,16 +10360,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O32" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P32" t="n">
-        <v>323.6062083485883</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10428,13 +10430,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>242.2415523308688</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>251.2133018590717</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N33" t="n">
         <v>242.4445403651401</v>
@@ -10443,10 +10445,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10589,19 +10591,19 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>285.0191798281438</v>
       </c>
       <c r="N35" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>284.8176621111052</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P35" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10662,25 +10664,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>248.3048328685796</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N36" t="n">
-        <v>176.0977499560457</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P36" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10823,25 +10825,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N38" t="n">
-        <v>243.917695040669</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P38" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,25 +10904,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M39" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N39" t="n">
-        <v>242.4445403651401</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O39" t="n">
-        <v>185.2420574994484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10996,7 +10998,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P40" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q40" t="n">
         <v>84.9458458910769</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>181.9590657572489</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M41" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O41" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443226</v>
       </c>
       <c r="P41" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,7 +11141,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -11151,13 +11153,13 @@
         <v>242.4445403651401</v>
       </c>
       <c r="O42" t="n">
-        <v>246.1048317753133</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q42" t="n">
-        <v>249.4645907423243</v>
+        <v>243.9805746090947</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11230,7 +11232,7 @@
         <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
-        <v>211.9541662756473</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P43" t="n">
         <v>175.5085323082534</v>
@@ -11297,19 +11299,19 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>317.4016976613613</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P44" t="n">
         <v>187.8768090511565</v>
@@ -11376,7 +11378,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -11388,13 +11390,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>243.9805746090947</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23969,7 +23971,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23981,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>141.2704755412192</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
@@ -24026,16 +24028,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>214.0590264618402</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="21">
@@ -24048,16 +24050,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D21" t="n">
-        <v>1.720851342258271</v>
+        <v>17.89979573851221</v>
       </c>
       <c r="E21" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -24096,7 +24098,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -24108,13 +24110,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.66311895793169</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.99041570010425</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D22" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -24145,7 +24147,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>23.21055905217045</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24190,10 +24192,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>109.3894845624002</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.0854079222139</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="23">
@@ -24209,13 +24211,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>249.5452702238707</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
@@ -24260,13 +24262,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>239.359125939797</v>
       </c>
       <c r="X23" t="n">
         <v>242.4804397762898</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.27479345227034</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C24" t="n">
         <v>24.35723673402308</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>26.00727494251956</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -24336,10 +24338,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24409,7 +24411,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>12.2971642743338</v>
+        <v>28.47610867058764</v>
       </c>
       <c r="S25" t="n">
         <v>75.84326567291754</v>
@@ -24418,7 +24420,7 @@
         <v>95.11776435504618</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24430,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.2643523184679</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>270.5526492216611</v>
       </c>
       <c r="C26" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -24455,7 +24457,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24500,7 +24502,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -24509,7 +24511,7 @@
         <v>242.4804397762898</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.27479345227034</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>24.35723673402308</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -24570,16 +24572,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>106.5612114249715</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -24588,7 +24590,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.16936009635809</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24613,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H28" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>82.66722525213942</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U28" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -24728,10 +24730,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>102.564901905121</v>
+        <v>102.5649019051211</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
@@ -24740,13 +24742,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.0958490560165</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>40.53618113027701</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -24810,22 +24812,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V30" t="n">
-        <v>106.5612114249714</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -24841,10 +24843,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>31.99071933933708</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24859,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>262.3765163474301</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.552649221661</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D32" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24974,13 +24976,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -25005,7 +25007,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>13.79640516844648</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -25059,10 +25061,10 @@
         <v>103.1733107815913</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.86671378948517</v>
+        <v>130.2320844017428</v>
       </c>
     </row>
     <row r="34">
@@ -25084,16 +25086,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>31.40539352330283</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
@@ -25126,10 +25128,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>111.2967087513001</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25138,10 +25140,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>49.62728631851783</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>192.2968055442263</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25217,7 +25219,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -25239,13 +25241,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>67.07718629177403</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25290,13 +25292,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>103.1733107815913</v>
+        <v>116.9697159500379</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.99041570010425</v>
+        <v>100.3213280292061</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D37" t="n">
-        <v>31.99071933933709</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -25366,16 +25368,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25406,7 +25408,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>209.9426067574859</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
         <v>171.0890268032919</v>
@@ -25445,13 +25447,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V38" t="n">
         <v>197.8800820655863</v>
       </c>
       <c r="W38" t="n">
-        <v>223.1801815435432</v>
+        <v>239.3591259397971</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -25473,7 +25475,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>17.89979573851213</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>126.4342241105005</v>
       </c>
       <c r="U39" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W39" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -25552,13 +25554,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>31.99071933933698</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>31.40539352330282</v>
       </c>
       <c r="G40" t="n">
         <v>167.2305511458285</v>
@@ -25597,22 +25599,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>148.5889378183593</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W40" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25628,22 +25630,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D41" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G41" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>299.6745103965911</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25685,10 +25687,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>214.0590264618401</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C42" t="n">
-        <v>108.2346435871165</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -25725,7 +25727,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U42" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>103.1733107815913</v>
+        <v>178.5386813938489</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -25834,19 +25836,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>95.11776435504618</v>
+        <v>111.2967087513001</v>
       </c>
       <c r="U43" t="n">
-        <v>148.5889378183593</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V43" t="n">
-        <v>138.5774964959837</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25874,7 +25876,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G44" t="n">
         <v>411.9429466803539</v>
@@ -25916,7 +25918,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -25925,10 +25927,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -25944,7 +25946,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -25956,10 +25958,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>30.28626587311119</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -26029,16 +26031,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>69.09043712796429</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -26077,7 +26079,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400549.4322720075</v>
+        <v>400549.4322720072</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400549.4322720076</v>
+        <v>400549.4322720074</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400549.4322720074</v>
+        <v>400549.4322720075</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400549.4322720079</v>
+        <v>400549.4322720076</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400549.4322720077</v>
+        <v>400549.4322720074</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400549.4322720076</v>
+        <v>400549.4322720074</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400549.4322720075</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>40835.24109532517</v>
       </c>
       <c r="E2" t="n">
+        <v>40835.24109532517</v>
+      </c>
+      <c r="F2" t="n">
         <v>40835.24109532516</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40835.24109532517</v>
       </c>
       <c r="G2" t="n">
         <v>40835.24109532517</v>
@@ -26335,7 +26337,7 @@
         <v>58138.60583959075</v>
       </c>
       <c r="J2" t="n">
-        <v>58138.60583959074</v>
+        <v>58138.60583959076</v>
       </c>
       <c r="K2" t="n">
         <v>58138.60583959075</v>
@@ -26344,16 +26346,16 @@
         <v>58138.60583959075</v>
       </c>
       <c r="M2" t="n">
+        <v>58138.60583959074</v>
+      </c>
+      <c r="N2" t="n">
         <v>58138.60583959076</v>
-      </c>
-      <c r="N2" t="n">
-        <v>58138.60583959075</v>
       </c>
       <c r="O2" t="n">
         <v>58138.60583959075</v>
       </c>
       <c r="P2" t="n">
-        <v>40835.24109532517</v>
+        <v>58138.60583959075</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32082.90102953113</v>
       </c>
     </row>
     <row r="4">
@@ -26418,28 +26420,28 @@
         <v>4537.249010591686</v>
       </c>
       <c r="C4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="D4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="E4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="F4" t="n">
         <v>4537.249010591686</v>
       </c>
       <c r="G4" t="n">
-        <v>4537.249010591685</v>
+        <v>4537.249010591686</v>
       </c>
       <c r="H4" t="n">
-        <v>6616.579535699273</v>
+        <v>6616.579535699274</v>
       </c>
       <c r="I4" t="n">
-        <v>6616.579535699273</v>
+        <v>6616.579535699274</v>
       </c>
       <c r="J4" t="n">
-        <v>6616.579535699273</v>
+        <v>6616.579535699274</v>
       </c>
       <c r="K4" t="n">
         <v>6616.579535699274</v>
@@ -26451,13 +26453,13 @@
         <v>6616.579535699274</v>
       </c>
       <c r="N4" t="n">
-        <v>6616.579535699275</v>
+        <v>6616.579535699273</v>
       </c>
       <c r="O4" t="n">
+        <v>6616.579535699273</v>
+      </c>
+      <c r="P4" t="n">
         <v>6616.579535699274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4537.249010591686</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="I5" t="n">
         <v>8252.347477283851</v>
       </c>
       <c r="J5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8252.347477283849</v>
+      </c>
+      <c r="P5" t="n">
         <v>8252.347477283851</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8252.347477283851</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8252.347477283851</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8252.347477283851</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8252.347477283851</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8252.347477283851</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670.392084733481</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="C6" t="n">
-        <v>2670.392084733481</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="D6" t="n">
-        <v>2670.392084733481</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="E6" t="n">
+        <v>36297.99208473348</v>
+      </c>
+      <c r="F6" t="n">
         <v>36297.99208473347</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36297.99208473349</v>
       </c>
       <c r="G6" t="n">
         <v>36297.99208473348</v>
       </c>
       <c r="H6" t="n">
-        <v>6648.665331566863</v>
+        <v>6648.66533156687</v>
       </c>
       <c r="I6" t="n">
         <v>43269.67882660762</v>
       </c>
       <c r="J6" t="n">
-        <v>43269.67882660761</v>
+        <v>43269.67882660763</v>
       </c>
       <c r="K6" t="n">
-        <v>43269.67882660762</v>
+        <v>43269.67882660763</v>
       </c>
       <c r="L6" t="n">
         <v>43269.67882660763</v>
       </c>
       <c r="M6" t="n">
-        <v>43269.67882660763</v>
+        <v>43269.67882660762</v>
       </c>
       <c r="N6" t="n">
-        <v>43269.67882660763</v>
+        <v>43269.67882660764</v>
       </c>
       <c r="O6" t="n">
         <v>43269.67882660763</v>
       </c>
       <c r="P6" t="n">
-        <v>36297.99208473348</v>
+        <v>11186.77779707649</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I4" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="K4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="L4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="M4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="N4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="O4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="P4" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="K4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="M4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="N4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="O4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27027,31 +27029,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L20" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="M20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>34.85926832931634</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O21" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>97.86286533098477</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>34.85926832931631</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M24" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N24" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L27" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36758,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255147</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
         <v>119.1853597248502</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="M29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P29" t="n">
-        <v>34.85926832931634</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>95.38611483488586</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448821</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,16 +37080,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O32" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="L33" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="M33" t="n">
-        <v>135.7293992974318</v>
-      </c>
       <c r="N33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,22 +37308,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>97.86286533098477</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N36" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,7 +37481,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>63.604529018321</v>
+        <v>63.60452901832097</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N38" t="n">
-        <v>57.51958086843889</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N39" t="n">
-        <v>135.7293992974318</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="O39" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.85926832931629</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O41" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O42" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="P42" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="Q42" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352497</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
